--- a/testplan.xlsx
+++ b/testplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="496">
   <si>
     <t>Field Name</t>
   </si>
@@ -1009,9 +1009,6 @@
     <t>1 - 63:Trigger set when receiver FIFO fills to RTRIG bytes</t>
   </si>
   <si>
-    <t>Trigger the peogrammed interrupt when FIFO is equal to RTRIG.</t>
-  </si>
-  <si>
     <t>Rcvr_FIFO_trigger_level (UART) Register Bit-Field Summary</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1022,9 +1019,6 @@
     <t>Transmitter FIFO Nearly Full continuous status:</t>
   </si>
   <si>
-    <t>Change the value of FIFO to change the value of WSIZE (defined in Mode  Register Bit-Field Summary), and judge whether there is an error</t>
-  </si>
-  <si>
     <t>This indicates that there is not enough space for the number of bytes currently specified in the WSIZE bits in the Mode register. If a write were currently attempted it would cause an overflow.</t>
   </si>
   <si>
@@ -1037,9 +1031,6 @@
     <t>Transmitter FIFO Trigger continuous status:</t>
   </si>
   <si>
-    <t>Change the value of FIFO to judge whether there is an error.</t>
-  </si>
-  <si>
     <t>0: Tx FIFO fill level is less</t>
   </si>
   <si>
@@ -1070,9 +1061,6 @@
     <t>Transmitter state machine active status:</t>
   </si>
   <si>
-    <t>Judge by other registers.</t>
-  </si>
-  <si>
     <t>0: inactive state</t>
   </si>
   <si>
@@ -1091,9 +1079,6 @@
     <t>Transmitter FIFO Full continuous status:</t>
   </si>
   <si>
-    <t>Judge by Tx FIFO.</t>
-  </si>
-  <si>
     <t>0: Tx FIFO is not full</t>
   </si>
   <si>
@@ -1112,9 +1097,6 @@
     <t>Receiver FIFO Full continuous status:</t>
   </si>
   <si>
-    <t>Judge by Rx FIFO.</t>
-  </si>
-  <si>
     <t>1: Rx FIFO is full</t>
   </si>
   <si>
@@ -1128,9 +1110,6 @@
   </si>
   <si>
     <t>Receiver FIFO Trigger continuous status:</t>
-  </si>
-  <si>
-    <t>Judge by Rx FIFO and RTRIG.</t>
   </si>
   <si>
     <t>0: Rx FIFO fill level is less than RTRIG</t>
@@ -1686,18 +1665,58 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Trigger set when transmitter FIFO fills to TTRIG bytes.If transmitter FIFO is not equal to TTRIG,it will not trigger interrupt event.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>It should not trigger an interrupt event regardless of transmitter FIFO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Enter data into it to determine whether the data bit will change.If there is a change,then there is an error.</t>
   </si>
   <si>
     <t>Enter data into it to determine whether the data bit will change.If there is a change,then there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read the state of TNFUL first, if it is 0, then input WSIZE as 01, and judge whether byte_sel is called and whether TX FIFO overflows. If the state of TNFUL is 1,repeat the input WSIZE to 10 to judge whether TX FIFO overflows; then input WSIZE to 11 to judge whether TX FIFO overflows.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change the value of FIFO to judge whether there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by transmitter state.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by receiver state.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by Tx FIFO. If TX FIFO is full, but TFUL is still 0, then there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by Tx FIFO. If TX FIFO is empty, but TFUL is still 0, then there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by Rx FIFO. If RX FIFO is full, but TFUL is still 0, then there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by Rx FIFO. If RX FIFO is empty, but TFUL is still 0, then there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judge by Rx FIFO and RTRIG. If RX FIFO is less than RTRIG, but RTRIG is 1, there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger set when transmitter FIFO fills to TTRIG bytes.If transmitter FIFO is not equal to TTRIG,it will not trigger interrupt event.For example, TTRIG is set to 0x20 and transmitter FIFO is set to other numbers. If an interrupt is triggered, there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>It should not trigger an interrupt event regardless of transmitter FIFO. If an interrupt is triggered, there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trigger the peogrammed interrupt when FIFO is equal to RTRIG. If there is an interrupt trigger, but FIFO is not equal to RTRIG, there is an error.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1848,7 +1867,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1970,13 +1989,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,9 +2016,6 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2003,8 +2025,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2346,7 +2368,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -2368,21 +2390,21 @@
         <v>39</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>8</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -2392,11 +2414,11 @@
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
@@ -2408,11 +2430,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
@@ -2424,17 +2446,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="43">
-        <v>7</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="44">
+        <v>7</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -2444,11 +2466,11 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
@@ -2459,34 +2481,34 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+    <row r="8" spans="1:8" ht="71.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="44">
         <v>6</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -2495,14 +2517,14 @@
       <c r="G9" s="20"/>
       <c r="H9" s="22"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+    <row r="10" spans="1:8" ht="42.75">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>42</v>
@@ -2512,17 +2534,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="44">
         <v>5</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -2532,11 +2554,11 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
@@ -2548,11 +2570,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="22" t="s">
         <v>21</v>
       </c>
@@ -2564,17 +2586,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="44">
         <v>4</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -2584,11 +2606,11 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="22" t="s">
         <v>24</v>
       </c>
@@ -2600,11 +2622,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="22" t="s">
         <v>48</v>
       </c>
@@ -2616,17 +2638,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="44">
         <v>3</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -2636,11 +2658,11 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
       <c r="F18" s="22" t="s">
         <v>27</v>
       </c>
@@ -2652,11 +2674,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="22" t="s">
         <v>97</v>
       </c>
@@ -2668,17 +2690,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="44">
         <v>2</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -2688,11 +2710,11 @@
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="22" t="s">
         <v>30</v>
       </c>
@@ -2703,14 +2725,14 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+    <row r="22" spans="1:8" ht="42.75">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>42</v>
@@ -2720,17 +2742,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="44">
         <v>1</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -2740,11 +2762,11 @@
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="22" t="s">
         <v>13</v>
       </c>
@@ -2753,14 +2775,14 @@
       </c>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" spans="1:8" ht="42.75">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+    <row r="25" spans="1:8" ht="57">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>42</v>
@@ -2770,17 +2792,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="44">
         <v>0</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -2790,11 +2812,11 @@
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="22" t="s">
         <v>13</v>
       </c>
@@ -2804,13 +2826,13 @@
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="1:8" ht="42.75">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="22" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>42</v>
@@ -2944,174 +2966,203 @@
     <row r="221" spans="2:8" s="4" customFormat="1"/>
     <row r="267" spans="1:1" s="4" customFormat="1" ht="28.5" customHeight="1"/>
     <row r="268" spans="1:1">
-      <c r="A268" s="41" t="s">
+      <c r="A268" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="41"/>
+      <c r="A269" s="45"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="41"/>
+      <c r="A270" s="45"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="41"/>
+      <c r="A271" s="45"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="41"/>
+      <c r="A272" s="45"/>
     </row>
     <row r="274" spans="1:8" s="4" customFormat="1"/>
     <row r="275" spans="1:8">
-      <c r="A275" s="41" t="s">
+      <c r="A275" s="45" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="41"/>
+      <c r="A276" s="45"/>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="41"/>
+      <c r="A277" s="45"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="41"/>
+      <c r="A278" s="45"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="41"/>
+      <c r="A279" s="45"/>
     </row>
     <row r="280" spans="1:8">
       <c r="H280" s="13"/>
     </row>
     <row r="281" spans="1:8" s="4" customFormat="1"/>
     <row r="282" spans="1:8">
-      <c r="A282" s="41" t="s">
-        <v>305</v>
+      <c r="A282" s="45" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="41"/>
+      <c r="A283" s="45"/>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="41"/>
+      <c r="A284" s="45"/>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="41"/>
+      <c r="A285" s="45"/>
     </row>
     <row r="286" spans="1:8">
       <c r="H286" s="13"/>
     </row>
     <row r="287" spans="1:8" s="4" customFormat="1"/>
     <row r="288" spans="1:8">
-      <c r="A288" s="41" t="s">
-        <v>347</v>
+      <c r="A288" s="45" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="41"/>
+      <c r="A289" s="45"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="41"/>
+      <c r="A290" s="45"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="41"/>
+      <c r="A291" s="45"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="41"/>
+      <c r="A292" s="45"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="41"/>
+      <c r="A293" s="45"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="41"/>
+      <c r="A294" s="45"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="41"/>
+      <c r="A295" s="45"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="41"/>
+      <c r="A296" s="45"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="41"/>
+      <c r="A297" s="45"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="41"/>
+      <c r="A298" s="45"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="41"/>
+      <c r="A299" s="45"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="41"/>
+      <c r="A300" s="45"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="41"/>
+      <c r="A301" s="45"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="41"/>
+      <c r="A302" s="45"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="41"/>
+      <c r="A303" s="45"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="41"/>
+      <c r="A304" s="45"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="41"/>
+      <c r="A305" s="45"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="41"/>
+      <c r="A306" s="45"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="41"/>
+      <c r="A307" s="45"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="41"/>
+      <c r="A308" s="45"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="41"/>
+      <c r="A309" s="45"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="41"/>
+      <c r="A310" s="45"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="41"/>
+      <c r="A311" s="45"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="41"/>
+      <c r="A312" s="45"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="41"/>
+      <c r="A313" s="45"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="41"/>
+      <c r="A314" s="45"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="41"/>
+      <c r="A315" s="45"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="41"/>
+      <c r="A316" s="45"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="41"/>
+      <c r="A317" s="45"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="41"/>
+      <c r="A318" s="45"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="41"/>
+      <c r="A319" s="45"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="41"/>
+      <c r="A320" s="45"/>
     </row>
     <row r="321" spans="1:8">
-      <c r="A321" s="41"/>
+      <c r="A321" s="45"/>
     </row>
     <row r="322" spans="1:8">
-      <c r="A322" s="41"/>
+      <c r="A322" s="45"/>
     </row>
     <row r="323" spans="1:8">
       <c r="H323" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A288:A322"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="A275:A279"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
@@ -3124,35 +3175,6 @@
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A288:A322"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="A275:A279"/>
-    <mergeCell ref="A2:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3165,7 +3187,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:H17"/>
+      <selection activeCell="B1" sqref="B1:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3205,14 +3227,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
-        <v>347</v>
+      <c r="A2" s="43" t="s">
+        <v>340</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -3224,287 +3246,287 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>14</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>492</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="48"/>
-    </row>
-    <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="48"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="43">
+        <v>13</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="22" t="s">
+      <c r="G8" s="51"/>
+      <c r="H8" s="53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="42">
-        <v>13</v>
-      </c>
-      <c r="D8" s="42" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="51"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="43">
+        <v>12</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="48" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="22" t="s">
+      <c r="E12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="22" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="C12" s="42">
-        <v>12</v>
-      </c>
-      <c r="D12" s="42" t="s">
+      <c r="G13" s="51"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="43">
+        <v>11</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="50"/>
-      <c r="H12" s="48" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="22" t="s">
+      <c r="E15" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="22" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="53" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="48"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42" t="s">
+      <c r="G16" s="51"/>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="42">
-        <v>11</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="G17" s="51"/>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="43">
+        <v>10</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="48" t="s">
+      <c r="E18" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="42">
-        <v>10</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="48" t="s">
-        <v>324</v>
+      <c r="G18" s="51"/>
+      <c r="H18" s="53" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="48"/>
+        <v>321</v>
+      </c>
+      <c r="G19" s="51"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="51"/>
-      <c r="H20" s="48"/>
+        <v>322</v>
+      </c>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>6</v>
@@ -3516,246 +3538,283 @@
         <v>8</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="43">
         <v>4</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="G23" s="51"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="43">
+        <v>3</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G26" s="51"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="43">
+        <v>2</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="53" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="43">
+        <v>1</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="53" t="s">
         <v>491</v>
       </c>
-      <c r="H22" s="48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="G23" s="50"/>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="48"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="42">
-        <v>3</v>
-      </c>
-      <c r="D25" s="42" t="s">
+    </row>
+    <row r="32" spans="1:8" ht="14.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.25">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G33" s="51"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="43">
+        <v>0</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="48"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="42">
-        <v>2</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="E34" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="48" t="s">
+      <c r="G34" s="51"/>
+      <c r="H34" s="53" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="22" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="22" t="s">
+      <c r="G35" s="51"/>
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="48"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="42">
-        <v>1</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="48" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G32" s="50"/>
-      <c r="H32" s="48"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="48"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="42">
-        <v>0</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="48" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="G35" s="50"/>
-      <c r="H35" s="48"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="G36" s="51"/>
-      <c r="H36" s="48"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A2:A36"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
     <mergeCell ref="G3:G20"/>
     <mergeCell ref="G22:G36"/>
     <mergeCell ref="B3:B7"/>
@@ -3772,43 +3831,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A2:A36"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3854,14 +3876,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="85.5">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:8" ht="114">
+      <c r="A2" s="43" t="s">
         <v>236</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -3880,14 +3902,14 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="20" t="s">
         <v>239</v>
       </c>
@@ -3957,14 +3979,14 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -3983,24 +4005,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>247</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -4009,12 +4031,12 @@
       <c r="G3" s="17"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>249</v>
       </c>
@@ -4025,12 +4047,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>252</v>
       </c>
@@ -4059,7 +4081,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4099,7 +4121,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>288</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4118,24 +4140,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>284</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -4144,12 +4166,12 @@
       <c r="G3" s="17"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>286</v>
       </c>
@@ -4157,34 +4179,34 @@
         <v>7</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="48" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="48"/>
+      <c r="H5" s="53" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90.75" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4207,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G38"/>
     </sheetView>
   </sheetViews>
@@ -4262,23 +4284,23 @@
         <v>8</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="43">
+      <c r="B3" s="44">
         <v>11</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -4288,10 +4310,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="28.5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="22" t="s">
         <v>108</v>
       </c>
@@ -4303,10 +4325,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="22" t="s">
         <v>52</v>
       </c>
@@ -4318,16 +4340,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="44">
         <v>10</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -4337,10 +4359,10 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="28.5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="22" t="s">
         <v>55</v>
       </c>
@@ -4352,10 +4374,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="22" t="s">
         <v>56</v>
       </c>
@@ -4367,16 +4389,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="43">
+      <c r="B9" s="44">
         <v>9</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -4386,10 +4408,10 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="28.5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="22" t="s">
         <v>59</v>
       </c>
@@ -4401,10 +4423,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="22" t="s">
         <v>60</v>
       </c>
@@ -4416,16 +4438,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="44">
         <v>8</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="22" t="s">
@@ -4435,10 +4457,10 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="22" t="s">
         <v>63</v>
       </c>
@@ -4450,10 +4472,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.5">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="22" t="s">
         <v>64</v>
       </c>
@@ -4465,16 +4487,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="43">
-        <v>7</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="44">
+        <v>7</v>
+      </c>
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -4484,10 +4506,10 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="28.5">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="22" t="s">
         <v>67</v>
       </c>
@@ -4499,10 +4521,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="22" t="s">
         <v>68</v>
       </c>
@@ -4514,16 +4536,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="44">
         <v>6</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -4533,10 +4555,10 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="22" t="s">
         <v>71</v>
       </c>
@@ -4548,10 +4570,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="42"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="22" t="s">
         <v>72</v>
       </c>
@@ -4563,16 +4585,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="44">
         <v>5</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -4582,10 +4604,10 @@
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="28.5">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="22" t="s">
         <v>75</v>
       </c>
@@ -4597,10 +4619,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="22" t="s">
         <v>76</v>
       </c>
@@ -4612,16 +4634,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="44">
         <v>4</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
@@ -4631,10 +4653,10 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="28.5">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="22" t="s">
         <v>79</v>
       </c>
@@ -4646,10 +4668,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="22" t="s">
         <v>80</v>
       </c>
@@ -4661,16 +4683,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="44">
         <v>3</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -4680,10 +4702,10 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="28.5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="22" t="s">
         <v>83</v>
       </c>
@@ -4695,10 +4717,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="22" t="s">
         <v>84</v>
       </c>
@@ -4710,16 +4732,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="44">
         <v>2</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="22" t="s">
@@ -4729,10 +4751,10 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="28.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="22" t="s">
         <v>87</v>
       </c>
@@ -4744,10 +4766,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="22" t="s">
         <v>88</v>
       </c>
@@ -4759,16 +4781,16 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="44">
         <v>1</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="22" t="s">
@@ -4778,10 +4800,10 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="28.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="22" t="s">
         <v>67</v>
       </c>
@@ -4793,10 +4815,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="22" t="s">
         <v>91</v>
       </c>
@@ -4808,16 +4830,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -4827,10 +4849,10 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="28.5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="22" t="s">
         <v>94</v>
       </c>
@@ -4842,10 +4864,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="22" t="s">
         <v>95</v>
       </c>
@@ -4858,22 +4880,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
@@ -4886,26 +4912,22 @@
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4960,7 +4982,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4979,24 +5001,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -5005,12 +5027,12 @@
       <c r="G3" s="17"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="57">
-      <c r="A4" s="44"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+    <row r="4" spans="1:8" ht="71.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>176</v>
       </c>
@@ -5021,12 +5043,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="44"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="46"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>178</v>
       </c>
@@ -5037,50 +5059,50 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+    <row r="6" spans="1:8" ht="42.75">
+      <c r="A6" s="46"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="22" t="s">
         <v>179</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.75">
-      <c r="A7" s="44"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+    <row r="7" spans="1:8" ht="57">
+      <c r="A7" s="46"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="22" t="s">
         <v>180</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="22" t="s">
@@ -5089,12 +5111,12 @@
       <c r="G8" s="17"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+    <row r="9" spans="1:8" ht="28.5">
+      <c r="A9" s="46"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="22" t="s">
         <v>142</v>
       </c>
@@ -5102,15 +5124,15 @@
         <v>175</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5">
-      <c r="A10" s="44"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="22" t="s">
         <v>143</v>
       </c>
@@ -5118,53 +5140,53 @@
         <v>214</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
-      <c r="A11" s="44"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="22" t="s">
         <v>144</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="44"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="22" t="s">
         <v>145</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5">
-      <c r="A13" s="44"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="22" t="s">
@@ -5174,11 +5196,11 @@
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="22" t="s">
         <v>148</v>
       </c>
@@ -5186,15 +5208,15 @@
         <v>175</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="22" t="s">
         <v>149</v>
       </c>
@@ -5202,67 +5224,67 @@
         <v>214</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="22" t="s">
         <v>150</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="22" t="s">
         <v>151</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="28.5">
-      <c r="A18" s="44"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="44"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+    <row r="19" spans="1:8" ht="42.75">
+      <c r="A19" s="46"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="22" t="s">
         <v>153</v>
       </c>
@@ -5270,15 +5292,15 @@
         <v>175</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.5">
-      <c r="A20" s="44"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42.75">
+      <c r="A20" s="46"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="22" t="s">
         <v>154</v>
       </c>
@@ -5286,69 +5308,69 @@
         <v>214</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.5">
-      <c r="A21" s="44"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42.75">
+      <c r="A21" s="46"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="22" t="s">
         <v>155</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.5">
-      <c r="A22" s="44"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="42.75">
+      <c r="A22" s="46"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="22" t="s">
         <v>156</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="22" t="s">
         <v>157</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.5">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -5358,65 +5380,65 @@
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="22" t="s">
         <v>160</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="22" t="s">
         <v>161</v>
       </c>
       <c r="G26" s="26" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="22" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.5">
-      <c r="A28" s="44"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="44">
         <v>0</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="22" t="s">
@@ -5426,48 +5448,39 @@
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="22" t="s">
         <v>165</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.5">
+      <c r="A30" s="46"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="22" t="s">
         <v>166</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="E3:E7"/>
@@ -5484,6 +5497,15 @@
     <mergeCell ref="E18:E23"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5508,7 +5530,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="57.625" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="41.875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28.5">
@@ -5532,11 +5554,11 @@
         <v>257</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -5558,21 +5580,21 @@
         <v>211</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="44">
         <v>13</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -5582,11 +5604,11 @@
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
@@ -5598,11 +5620,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>260</v>
       </c>
@@ -5614,17 +5636,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="44">
         <v>12</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -5634,11 +5656,11 @@
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
@@ -5650,11 +5672,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="22" t="s">
         <v>263</v>
       </c>
@@ -5666,17 +5688,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="44">
         <v>11</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -5686,11 +5708,11 @@
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
@@ -5702,11 +5724,11 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="22" t="s">
         <v>263</v>
       </c>
@@ -5718,17 +5740,17 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="44">
         <v>10</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -5738,11 +5760,11 @@
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="22" t="s">
         <v>30</v>
       </c>
@@ -5754,11 +5776,11 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="22" t="s">
         <v>31</v>
       </c>
@@ -5770,17 +5792,17 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="44">
         <v>9</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -5790,11 +5812,11 @@
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5806,11 +5828,11 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="22" t="s">
         <v>263</v>
       </c>
@@ -5822,17 +5844,17 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="44">
         <v>8</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -5842,11 +5864,11 @@
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
@@ -5858,11 +5880,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="22" t="s">
         <v>263</v>
       </c>
@@ -5874,17 +5896,17 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="43">
-        <v>7</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="44">
+        <v>7</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -5894,11 +5916,11 @@
       <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="22" t="s">
         <v>30</v>
       </c>
@@ -5910,11 +5932,11 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="22" t="s">
         <v>31</v>
       </c>
@@ -5926,17 +5948,17 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="44">
         <v>6</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -5946,11 +5968,11 @@
       <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -5962,11 +5984,11 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="22" t="s">
         <v>263</v>
       </c>
@@ -5978,17 +6000,17 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="44">
         <v>5</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -5998,11 +6020,11 @@
       <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="22" t="s">
         <v>13</v>
       </c>
@@ -6014,11 +6036,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="22" t="s">
         <v>263</v>
       </c>
@@ -6030,17 +6052,17 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="44">
         <v>4</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -6050,11 +6072,11 @@
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="22" t="s">
         <v>13</v>
       </c>
@@ -6066,11 +6088,11 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="22" t="s">
         <v>263</v>
       </c>
@@ -6082,17 +6104,17 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="44">
         <v>3</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -6102,11 +6124,11 @@
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="22" t="s">
         <v>30</v>
       </c>
@@ -6118,11 +6140,11 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.5">
-      <c r="A35" s="45"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="22" t="s">
         <v>31</v>
       </c>
@@ -6134,17 +6156,17 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="44">
         <v>2</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -6154,11 +6176,11 @@
       <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" ht="14.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="22" t="s">
         <v>13</v>
       </c>
@@ -6170,11 +6192,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.5">
-      <c r="A38" s="45"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="22" t="s">
         <v>263</v>
       </c>
@@ -6186,17 +6208,17 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="43">
+      <c r="C39" s="44">
         <v>1</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -6206,11 +6228,11 @@
       <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="22" t="s">
         <v>13</v>
       </c>
@@ -6222,11 +6244,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="22" t="s">
         <v>263</v>
       </c>
@@ -6238,17 +6260,17 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="44">
         <v>0</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -6258,11 +6280,11 @@
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="22" t="s">
         <v>13</v>
       </c>
@@ -6274,11 +6296,11 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.5">
-      <c r="A44" s="45"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="22" t="s">
         <v>263</v>
       </c>
@@ -6291,11 +6313,42 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A2:A44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="E39:E41"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="D21:D23"/>
@@ -6312,42 +6365,11 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A2:A44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6371,7 +6393,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="57.625" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="41.875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="41.875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5">
@@ -6392,15 +6414,15 @@
         <v>4</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>279</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -6422,22 +6444,22 @@
         <v>211</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="43">
         <v>13</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -6448,11 +6470,11 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
@@ -6465,11 +6487,11 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="45"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>276</v>
       </c>
@@ -6482,17 +6504,17 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="43">
         <v>12</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -6503,11 +6525,11 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="14.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
@@ -6520,11 +6542,11 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="28.5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="22" t="s">
         <v>278</v>
       </c>
@@ -6537,17 +6559,17 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="43">
         <v>11</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -6558,11 +6580,11 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="14.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
@@ -6575,11 +6597,11 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="28.5">
-      <c r="A11" s="45"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="22" t="s">
         <v>278</v>
       </c>
@@ -6592,17 +6614,17 @@
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="43">
         <v>10</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -6613,11 +6635,11 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
@@ -6630,11 +6652,11 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="45"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="22" t="s">
         <v>278</v>
       </c>
@@ -6647,17 +6669,17 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="42" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="43">
         <v>9</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
@@ -6668,11 +6690,11 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="22" t="s">
         <v>13</v>
       </c>
@@ -6685,11 +6707,11 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="28.5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="22" t="s">
         <v>278</v>
       </c>
@@ -6702,17 +6724,17 @@
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="14.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="42" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="43">
         <v>8</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22" t="s">
@@ -6723,11 +6745,11 @@
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
@@ -6740,11 +6762,11 @@
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="28.5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="22" t="s">
         <v>278</v>
       </c>
@@ -6757,17 +6779,17 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="14.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="42" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="42">
-        <v>7</v>
-      </c>
-      <c r="D21" s="42" t="s">
+      <c r="C21" s="43">
+        <v>7</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="22" t="s">
@@ -6778,11 +6800,11 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="22" t="s">
         <v>13</v>
       </c>
@@ -6795,11 +6817,11 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="28.5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="22" t="s">
         <v>278</v>
       </c>
@@ -6812,17 +6834,17 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="42" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="43">
         <v>6</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="22" t="s">
@@ -6833,11 +6855,11 @@
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -6850,11 +6872,11 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="28.5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="22" t="s">
         <v>278</v>
       </c>
@@ -6867,17 +6889,17 @@
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="14.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="42" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="43">
         <v>5</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="22" t="s">
@@ -6888,11 +6910,11 @@
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="22" t="s">
         <v>13</v>
       </c>
@@ -6905,11 +6927,11 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="28.5">
-      <c r="A29" s="45"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="22" t="s">
         <v>278</v>
       </c>
@@ -6922,17 +6944,17 @@
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="43">
         <v>4</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="22" t="s">
@@ -6943,11 +6965,11 @@
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="14.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="22" t="s">
         <v>13</v>
       </c>
@@ -6960,11 +6982,11 @@
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="28.5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="22" t="s">
         <v>278</v>
       </c>
@@ -6977,17 +6999,17 @@
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="14.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="42" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="43">
         <v>3</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="22" t="s">
@@ -6998,11 +7020,11 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="14.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="22" t="s">
         <v>13</v>
       </c>
@@ -7015,11 +7037,11 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="28.5">
-      <c r="A35" s="45"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
       <c r="F35" s="22" t="s">
         <v>278</v>
       </c>
@@ -7032,17 +7054,17 @@
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="47"/>
+      <c r="B36" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="43">
         <v>2</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -7053,11 +7075,11 @@
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="14.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
       <c r="F37" s="22" t="s">
         <v>13</v>
       </c>
@@ -7070,11 +7092,11 @@
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="28.5">
-      <c r="A38" s="45"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
       <c r="F38" s="22" t="s">
         <v>278</v>
       </c>
@@ -7087,17 +7109,17 @@
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" ht="14.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="43">
         <v>1</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="22" t="s">
@@ -7108,11 +7130,11 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
       <c r="F40" s="22" t="s">
         <v>13</v>
       </c>
@@ -7125,11 +7147,11 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" ht="28.5">
-      <c r="A41" s="45"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="22" t="s">
         <v>278</v>
       </c>
@@ -7142,17 +7164,17 @@
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" ht="14.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="42" t="s">
+      <c r="A42" s="47"/>
+      <c r="B42" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="43">
         <v>0</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="22" t="s">
@@ -7163,11 +7185,11 @@
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="22" t="s">
         <v>13</v>
       </c>
@@ -7180,11 +7202,11 @@
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="28.5">
-      <c r="A44" s="45"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="22" t="s">
         <v>278</v>
       </c>
@@ -7197,34 +7219,19 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B33:B35"/>
     <mergeCell ref="A2:A44"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
@@ -7241,19 +7248,34 @@
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7276,7 +7298,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="57.625" customWidth="1"/>
     <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="41.875" style="52" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5">
@@ -7307,7 +7329,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>6</v>
@@ -7322,745 +7344,697 @@
         <v>212</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="43">
         <v>13</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="28.5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="22" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>213</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="22" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>214</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="43">
         <v>12</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="28.5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="43">
         <v>11</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="28.5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="43">
         <v>10</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.5">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="43">
         <v>9</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="28.5">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="43">
         <v>8</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
       <c r="E19" s="22" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="42">
-        <v>7</v>
-      </c>
-      <c r="C21" s="42" t="s">
+      <c r="B21" s="43">
+        <v>7</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="28.5">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
       <c r="E22" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="42">
+      <c r="B24" s="43">
         <v>6</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="28.5">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
       <c r="E25" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="43">
         <v>5</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="28.5">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="43">
         <v>4</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="28.5">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
       <c r="E31" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="42">
+      <c r="B33" s="43">
         <v>3</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="28.5">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
       <c r="E34" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.5">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
       <c r="E35" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="43">
         <v>2</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="28.5">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
       <c r="E38" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="43">
         <v>1</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="28.5">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.5">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
       <c r="E41" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="B42" s="42">
+      <c r="B42" s="43">
         <v>0</v>
       </c>
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="28.5">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
       <c r="E43" s="22" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28.5">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="22" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A21:A23"/>
@@ -8069,6 +8043,54 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C30:C32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8121,14 +8143,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>445</v>
+      <c r="A2" s="48" t="s">
+        <v>438</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>215</v>
@@ -8143,21 +8165,21 @@
         <v>211</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="48">
         <v>13</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="37" t="s">
@@ -8166,28 +8188,28 @@
       <c r="G3" s="35"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="37" t="s">
         <v>217</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="37" t="s">
         <v>218</v>
       </c>
@@ -8195,11 +8217,11 @@
       <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="37" t="s">
         <v>219</v>
       </c>
@@ -8207,17 +8229,17 @@
       <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="48">
         <v>12</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="37" t="s">
@@ -8226,28 +8248,28 @@
       <c r="G7" s="35"/>
       <c r="H7" s="37"/>
     </row>
-    <row r="8" spans="1:8" ht="71.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+    <row r="8" spans="1:8" ht="85.5">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="37" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>234</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="37" t="s">
         <v>218</v>
       </c>
@@ -8257,11 +8279,11 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="37" t="s">
         <v>219</v>
       </c>
@@ -8271,17 +8293,17 @@
       <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="48">
         <v>11</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="37" t="s">
@@ -8290,74 +8312,74 @@
       <c r="G11" s="35"/>
       <c r="H11" s="37"/>
     </row>
-    <row r="12" spans="1:8" ht="57">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+    <row r="12" spans="1:8" ht="85.5">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="37" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="37"/>
     </row>
-    <row r="13" spans="1:8" ht="28.5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+    <row r="13" spans="1:8" ht="57">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="37" t="s">
         <v>221</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="37"/>
     </row>
-    <row r="14" spans="1:8" ht="156.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+    <row r="14" spans="1:8" ht="185.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="199.5">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="242.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="48">
         <v>10</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="37" t="s">
@@ -8366,28 +8388,28 @@
       <c r="G16" s="35"/>
       <c r="H16" s="37"/>
     </row>
-    <row r="17" spans="1:8" ht="99.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+    <row r="17" spans="1:8" ht="128.25">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="37" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="37" t="s">
         <v>218</v>
       </c>
@@ -8395,11 +8417,11 @@
       <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="37" t="s">
         <v>219</v>
       </c>
@@ -8407,17 +8429,17 @@
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="48">
         <v>9</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="48" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="37" t="s">
@@ -8426,28 +8448,28 @@
       <c r="G20" s="35"/>
       <c r="H20" s="37"/>
     </row>
-    <row r="21" spans="1:8" ht="42.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
+    <row r="21" spans="1:8" ht="71.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="37" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="37" t="s">
         <v>218</v>
       </c>
@@ -8455,11 +8477,11 @@
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
       <c r="F23" s="37" t="s">
         <v>219</v>
       </c>
@@ -8467,17 +8489,17 @@
       <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="48">
         <v>8</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="37" t="s">
@@ -8486,44 +8508,44 @@
       <c r="G24" s="35"/>
       <c r="H24" s="37"/>
     </row>
-    <row r="25" spans="1:8" ht="28.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+    <row r="25" spans="1:8" ht="42.75">
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="37" t="s">
         <v>223</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="42.75">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
       <c r="F27" s="37" t="s">
         <v>219</v>
       </c>
@@ -8531,17 +8553,17 @@
       <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="46">
-        <v>7</v>
-      </c>
-      <c r="D28" s="46" t="s">
+      <c r="C28" s="48">
+        <v>7</v>
+      </c>
+      <c r="D28" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="37" t="s">
@@ -8550,40 +8572,40 @@
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+    <row r="29" spans="1:8" ht="28.5">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
       <c r="F29" s="37" t="s">
         <v>224</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" ht="28.5">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+    <row r="30" spans="1:8" ht="42.75">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
       <c r="F31" s="37" t="s">
         <v>219</v>
       </c>
@@ -8591,17 +8613,17 @@
       <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="48">
         <v>6</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="37" t="s">
@@ -8610,62 +8632,62 @@
       <c r="G32" s="35"/>
       <c r="H32" s="37"/>
     </row>
-    <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
+    <row r="33" spans="1:8" ht="28.5">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
       <c r="F33" s="37" t="s">
         <v>225</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="37"/>
     </row>
-    <row r="34" spans="1:8" ht="28.5">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
+    <row r="34" spans="1:8" ht="42.75">
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.5">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="42.75">
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
       <c r="F35" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="48">
         <v>5</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="37" t="s">
@@ -8674,40 +8696,40 @@
       <c r="G36" s="38"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" ht="42.75">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+    <row r="37" spans="1:8" ht="57">
+      <c r="A37" s="48"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
       <c r="F37" s="37" t="s">
         <v>226</v>
       </c>
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" ht="71.25">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
+    <row r="38" spans="1:8" ht="85.5">
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
       <c r="F38" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="37" t="s">
         <v>219</v>
       </c>
@@ -8715,17 +8737,17 @@
       <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46" t="s">
+      <c r="A40" s="48"/>
+      <c r="B40" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="48">
         <v>4</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="37" t="s">
@@ -8734,60 +8756,60 @@
       <c r="G40" s="35"/>
       <c r="H40" s="37"/>
     </row>
-    <row r="41" spans="1:8" ht="42.75">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
+    <row r="41" spans="1:8" ht="71.25">
+      <c r="A41" s="48"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="37" t="s">
         <v>227</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H41" s="37"/>
     </row>
-    <row r="42" spans="1:8" ht="28.5">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
+    <row r="42" spans="1:8" ht="42.75">
+      <c r="A42" s="48"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.5">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42.75">
+      <c r="A43" s="48"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="37" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="48"/>
+      <c r="B44" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="48">
         <v>3</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="37" t="s">
@@ -8796,62 +8818,62 @@
       <c r="G44" s="35"/>
       <c r="H44" s="37"/>
     </row>
-    <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="46"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
+    <row r="45" spans="1:8" ht="28.5">
+      <c r="A45" s="48"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
       <c r="F45" s="37" t="s">
         <v>228</v>
       </c>
       <c r="G45" s="35"/>
       <c r="H45" s="37"/>
     </row>
-    <row r="46" spans="1:8" ht="28.5">
-      <c r="A46" s="46"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
+    <row r="46" spans="1:8" ht="42.75">
+      <c r="A46" s="48"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="71.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="85.5">
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="48">
         <v>2</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="37" t="s">
@@ -8860,76 +8882,76 @@
       <c r="G48" s="35"/>
       <c r="H48" s="37"/>
     </row>
-    <row r="49" spans="1:8" ht="42.75">
-      <c r="A49" s="46"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
+    <row r="49" spans="1:8" ht="57">
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="37" t="s">
         <v>229</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G50" s="35"/>
       <c r="H50" s="37" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.25">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="37" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="57">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="71.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="48">
         <v>1</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H52" s="37"/>
     </row>
-    <row r="53" spans="1:8" ht="14.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
+    <row r="53" spans="1:8" ht="28.5">
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="37" t="s">
         <v>230</v>
       </c>
@@ -8937,45 +8959,45 @@
       <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" ht="14.25">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="37" t="s">
         <v>218</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="37" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
       <c r="F55" s="37" t="s">
         <v>219</v>
       </c>
       <c r="G55" s="35"/>
       <c r="H55" s="37" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="46">
+      <c r="C56" s="48">
         <v>0</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="37" t="s">
@@ -8985,27 +9007,27 @@
       <c r="H56" s="37"/>
     </row>
     <row r="57" spans="1:8" ht="28.5">
-      <c r="A57" s="46"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
       <c r="F57" s="37" t="s">
         <v>231</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
       <c r="F58" s="37" t="s">
         <v>218</v>
       </c>
@@ -9013,11 +9035,11 @@
       <c r="H58" s="37"/>
     </row>
     <row r="59" spans="1:8" ht="14.25">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="37" t="s">
         <v>219</v>
       </c>
@@ -9026,13 +9048,41 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A2:A59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="B48:B51"/>
@@ -9048,41 +9098,13 @@
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A2:A59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9134,7 +9156,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -9153,24 +9175,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>292</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -9180,11 +9202,11 @@
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>294</v>
       </c>
@@ -9196,11 +9218,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>296</v>
       </c>
@@ -9212,11 +9234,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="22" t="s">
         <v>298</v>
       </c>
@@ -9224,7 +9246,7 @@
         <v>292</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -9285,7 +9307,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -9304,24 +9326,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -9331,11 +9353,11 @@
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>101</v>
       </c>
@@ -9347,11 +9369,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>102</v>
       </c>
@@ -9395,8 +9417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="B1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9436,14 +9458,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="42" t="s">
-        <v>443</v>
+      <c r="A2" s="43" t="s">
+        <v>436</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -9455,24 +9477,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="49">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="43" t="s">
         <v>284</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -9482,11 +9504,11 @@
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="22" t="s">
         <v>301</v>
       </c>
@@ -9497,20 +9519,20 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="22" t="s">
         <v>303</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="23" t="s">
-        <v>304</v>
+      <c r="H5" s="41" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/testplan.xlsx
+++ b/testplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="496">
   <si>
     <t>Field Name</t>
   </si>
@@ -455,14 +455,6 @@
   </si>
   <si>
     <t>Read out, if the value is 1,  a parity error was detected when byte 0 was received</t>
-  </si>
-  <si>
-    <t>OK if transmitter logic is reset and all pending transmitter data is discarded. This bit is self clearing once the reset has completed.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK if receiver logic is reset and all pending receiver data is discarded. This bit is self clearing once the reset has completed.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Control (UART) Register</t>
@@ -841,19 +833,10 @@
     <t>0 - 3: ignored</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>Test the Rx and Tx Baud_rate and Baud_Sample, OK when  the Baud_rate is not divided.</t>
   </si>
   <si>
     <t>4 - 255: Baud rate</t>
-  </si>
-  <si>
-    <t>4-255</t>
-  </si>
-  <si>
-    <t>Test the Rx and Tx Baud_rate and Baud_Sample, OK when it matches the result we want.</t>
   </si>
   <si>
     <t>1-255</t>
@@ -1717,6 +1700,26 @@
   </si>
   <si>
     <t>Trigger the peogrammed interrupt when FIFO is equal to RTRIG. If there is an interrupt trigger, but FIFO is not equal to RTRIG, there is an error.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test the Rx and Tx Baud_rate and Baud_Sample, OK when it matches the result we want.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x38B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK if all pending transmitter data in TX FIFO and shift register is discarded. This bit should be self clearing once the reset has completed.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK if all pending receiver data in RX FIFO and shift register is discarded. This bit should be self clearing once the reset has completed.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1867,7 +1870,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1998,10 +2001,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2016,6 +2022,9 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2024,9 +2033,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2327,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H28"/>
     </sheetView>
   </sheetViews>
@@ -2368,8 +2374,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>135</v>
+      <c r="A2" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
@@ -2390,21 +2396,21 @@
         <v>39</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="46">
         <v>8</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -2414,11 +2420,11 @@
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
@@ -2430,11 +2436,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="22" t="s">
         <v>43</v>
       </c>
@@ -2446,17 +2452,17 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="44">
-        <v>7</v>
-      </c>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="46">
+        <v>7</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -2466,11 +2472,11 @@
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
@@ -2482,33 +2488,33 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="71.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="22" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="46">
         <v>6</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
@@ -2518,13 +2524,13 @@
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="42.75">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="22" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>42</v>
@@ -2534,17 +2540,17 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="46">
         <v>5</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -2554,11 +2560,11 @@
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="22" t="s">
         <v>20</v>
       </c>
@@ -2570,11 +2576,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="22" t="s">
         <v>21</v>
       </c>
@@ -2586,17 +2592,17 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="46">
         <v>4</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="22" t="s">
@@ -2606,11 +2612,11 @@
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="22" t="s">
         <v>24</v>
       </c>
@@ -2622,11 +2628,11 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="22" t="s">
         <v>48</v>
       </c>
@@ -2638,17 +2644,17 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43" t="s">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="46">
         <v>3</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="45" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="22" t="s">
@@ -2658,11 +2664,11 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="22" t="s">
         <v>27</v>
       </c>
@@ -2674,11 +2680,11 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="22" t="s">
         <v>97</v>
       </c>
@@ -2690,17 +2696,17 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43" t="s">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="46">
         <v>2</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="22" t="s">
@@ -2710,11 +2716,11 @@
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="22" t="s">
         <v>30</v>
       </c>
@@ -2726,13 +2732,13 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="42.75">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="22" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G22" s="20" t="s">
         <v>42</v>
@@ -2742,17 +2748,17 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="46">
         <v>1</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="43" t="s">
+      <c r="E23" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="22" t="s">
@@ -2762,11 +2768,11 @@
       <c r="H23" s="22"/>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="22" t="s">
         <v>13</v>
       </c>
@@ -2776,33 +2782,33 @@
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" ht="57">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="22" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>133</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="46">
         <v>0</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -2812,11 +2818,11 @@
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="22" t="s">
         <v>13</v>
       </c>
@@ -2825,20 +2831,20 @@
       </c>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" spans="1:8" ht="42.75">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+    <row r="28" spans="1:8" ht="57">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="22" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>134</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.25">
@@ -2966,203 +2972,174 @@
     <row r="221" spans="2:8" s="4" customFormat="1"/>
     <row r="267" spans="1:1" s="4" customFormat="1" ht="28.5" customHeight="1"/>
     <row r="268" spans="1:1">
-      <c r="A268" s="45" t="s">
-        <v>288</v>
+      <c r="A268" s="44" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="45"/>
+      <c r="A269" s="44"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="45"/>
+      <c r="A270" s="44"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="45"/>
+      <c r="A271" s="44"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="45"/>
+      <c r="A272" s="44"/>
     </row>
     <row r="274" spans="1:8" s="4" customFormat="1"/>
     <row r="275" spans="1:8">
-      <c r="A275" s="45" t="s">
-        <v>299</v>
+      <c r="A275" s="44" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="45"/>
+      <c r="A276" s="44"/>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="45"/>
+      <c r="A277" s="44"/>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="45"/>
+      <c r="A278" s="44"/>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="45"/>
+      <c r="A279" s="44"/>
     </row>
     <row r="280" spans="1:8">
       <c r="H280" s="13"/>
     </row>
     <row r="281" spans="1:8" s="4" customFormat="1"/>
     <row r="282" spans="1:8">
-      <c r="A282" s="45" t="s">
-        <v>304</v>
+      <c r="A282" s="44" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="45"/>
+      <c r="A283" s="44"/>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="45"/>
+      <c r="A284" s="44"/>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="45"/>
+      <c r="A285" s="44"/>
     </row>
     <row r="286" spans="1:8">
       <c r="H286" s="13"/>
     </row>
     <row r="287" spans="1:8" s="4" customFormat="1"/>
     <row r="288" spans="1:8">
-      <c r="A288" s="45" t="s">
-        <v>340</v>
+      <c r="A288" s="44" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="45"/>
+      <c r="A289" s="44"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="45"/>
+      <c r="A290" s="44"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="45"/>
+      <c r="A291" s="44"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="45"/>
+      <c r="A292" s="44"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="45"/>
+      <c r="A293" s="44"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="45"/>
+      <c r="A294" s="44"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="45"/>
+      <c r="A295" s="44"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="45"/>
+      <c r="A296" s="44"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="45"/>
+      <c r="A297" s="44"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="45"/>
+      <c r="A298" s="44"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="45"/>
+      <c r="A299" s="44"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="45"/>
+      <c r="A300" s="44"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="45"/>
+      <c r="A301" s="44"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="45"/>
+      <c r="A302" s="44"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="45"/>
+      <c r="A303" s="44"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="45"/>
+      <c r="A304" s="44"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="45"/>
+      <c r="A305" s="44"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="45"/>
+      <c r="A306" s="44"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="45"/>
+      <c r="A307" s="44"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="45"/>
+      <c r="A308" s="44"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="45"/>
+      <c r="A309" s="44"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="45"/>
+      <c r="A310" s="44"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="45"/>
+      <c r="A311" s="44"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="45"/>
+      <c r="A312" s="44"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="45"/>
+      <c r="A313" s="44"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="45"/>
+      <c r="A314" s="44"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="45"/>
+      <c r="A315" s="44"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="45"/>
+      <c r="A316" s="44"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="45"/>
+      <c r="A317" s="44"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="45"/>
+      <c r="A318" s="44"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="45"/>
+      <c r="A319" s="44"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="45"/>
+      <c r="A320" s="44"/>
     </row>
     <row r="321" spans="1:8">
-      <c r="A321" s="45"/>
+      <c r="A321" s="44"/>
     </row>
     <row r="322" spans="1:8">
-      <c r="A322" s="45"/>
+      <c r="A322" s="44"/>
     </row>
     <row r="323" spans="1:8">
       <c r="H323" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A288:A322"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A282:A285"/>
-    <mergeCell ref="A275:A279"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="D26:D28"/>
@@ -3175,6 +3152,35 @@
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A288:A322"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A282:A285"/>
+    <mergeCell ref="A275:A279"/>
+    <mergeCell ref="A2:A28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3186,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3220,21 +3226,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>340</v>
+      <c r="A2" s="45" t="s">
+        <v>335</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -3246,287 +3252,287 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="45">
+        <v>14</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="14.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="43">
-        <v>14</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C8" s="45">
+        <v>13</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="22" t="s">
+      <c r="E8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.25">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>483</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="22" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="22" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="53"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="22" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="53"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="43">
-        <v>13</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="C12" s="45">
+        <v>12</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="E12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="53" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="22" t="s">
+      <c r="G12" s="53"/>
+      <c r="H12" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="22" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="G10" s="51"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="22" t="s">
+      <c r="G13" s="53"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" ht="14.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="G11" s="51"/>
-      <c r="H11" s="53"/>
-    </row>
-    <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43" t="s">
+      <c r="G14" s="53"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="C12" s="43">
-        <v>12</v>
-      </c>
-      <c r="D12" s="43" t="s">
+      <c r="C15" s="45">
+        <v>11</v>
+      </c>
+      <c r="D15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E15" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="53" t="s">
+      <c r="G15" s="53"/>
+      <c r="H15" s="51" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="22" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="22" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="22" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43" t="s">
+      <c r="C18" s="45">
+        <v>10</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="C15" s="43">
-        <v>11</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="53" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G16" s="51"/>
-      <c r="H16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="C18" s="43">
-        <v>10</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G18" s="51"/>
-      <c r="H18" s="53" t="s">
-        <v>487</v>
+      <c r="G18" s="53"/>
+      <c r="H18" s="51" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="51"/>
-      <c r="H19" s="53"/>
+        <v>316</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+        <v>317</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>6</v>
@@ -3538,246 +3544,283 @@
         <v>8</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43" t="s">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="45">
+        <v>4</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="H23" s="51"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="53"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="43">
-        <v>4</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="C25" s="45">
+        <v>3</v>
+      </c>
+      <c r="D25" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="E25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="G25" s="53"/>
+      <c r="H25" s="51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="53"/>
+      <c r="H26" s="51"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>482</v>
-      </c>
-      <c r="H22" s="53" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="22" t="s">
+      <c r="G27" s="53"/>
+      <c r="H27" s="51"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="45">
+        <v>2</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="22" t="s">
+      <c r="G28" s="53"/>
+      <c r="H28" s="51" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="G24" s="51"/>
-      <c r="H24" s="53"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="43">
-        <v>3</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="G29" s="53"/>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="53"/>
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="45">
+        <v>1</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="53" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="22" t="s">
+      <c r="E31" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="53"/>
+      <c r="H31" s="51" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="22" t="s">
+      <c r="G32" s="53"/>
+      <c r="H32" s="51"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C28" s="43">
-        <v>2</v>
-      </c>
-      <c r="D28" s="43" t="s">
+      <c r="G33" s="53"/>
+      <c r="H33" s="51"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="45">
+        <v>0</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="E34" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G28" s="51"/>
-      <c r="H28" s="53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="22" t="s">
+      <c r="G34" s="53"/>
+      <c r="H34" s="51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="G29" s="51"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="22" t="s">
+      <c r="G35" s="53"/>
+      <c r="H35" s="51"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="G30" s="51"/>
-      <c r="H30" s="53"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="43">
-        <v>1</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="G31" s="51"/>
-      <c r="H31" s="53" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="G32" s="51"/>
-      <c r="H32" s="53"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="53"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C34" s="43">
-        <v>0</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="G34" s="51"/>
-      <c r="H34" s="53" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="G35" s="51"/>
-      <c r="H35" s="53"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="G3:G20"/>
+    <mergeCell ref="G22:G36"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E28:E30"/>
     <mergeCell ref="A2:A36"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D7"/>
@@ -3794,43 +3837,6 @@
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="G3:G20"/>
-    <mergeCell ref="G22:G36"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3843,7 +3849,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3876,21 +3882,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="114">
-      <c r="A2" s="43" t="s">
-        <v>236</v>
+      <c r="A2" s="45" t="s">
+        <v>234</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -3902,19 +3908,19 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5">
+      <c r="A3" s="45"/>
+      <c r="B3" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5">
-      <c r="A3" s="43"/>
-      <c r="B3" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>240</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>10</v>
@@ -3923,13 +3929,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>241</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3945,8 +3951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3979,21 +3985,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>244</v>
+      <c r="A2" s="45" t="s">
+        <v>242</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -4005,62 +4011,62 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H2" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="F3" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="42.75">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>253</v>
+      <c r="G5" s="20">
+        <v>64</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4114,21 +4120,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>288</v>
+      <c r="A2" s="45" t="s">
+        <v>283</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -4140,73 +4146,73 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>284</v>
+      <c r="E3" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="H5" s="53" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>493</v>
       </c>
+      <c r="H5" s="51" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="90.75" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="53"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4229,7 +4235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:G38"/>
     </sheetView>
   </sheetViews>
@@ -4284,23 +4290,23 @@
         <v>8</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="46">
         <v>11</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -4310,46 +4316,46 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="28.5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="46">
         <v>10</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -4359,46 +4365,46 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" ht="28.5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="22" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="46">
         <v>9</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
@@ -4408,46 +4414,46 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="28.5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="22" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="22" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="46">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="22" t="s">
@@ -4457,46 +4463,46 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="22" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.5">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="22" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="44">
-        <v>7</v>
-      </c>
-      <c r="C15" s="43" t="s">
+      <c r="B15" s="46">
+        <v>7</v>
+      </c>
+      <c r="C15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="22" t="s">
@@ -4506,46 +4512,46 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="28.5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="22" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="22" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="46">
         <v>6</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -4555,46 +4561,46 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="22" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="46">
         <v>5</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -4604,46 +4610,46 @@
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" ht="28.5">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="22" t="s">
         <v>75</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="22" t="s">
         <v>76</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="46">
         <v>4</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
@@ -4653,46 +4659,46 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="28.5">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="22" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="46">
         <v>3</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -4702,46 +4708,46 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:7" ht="28.5">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="22" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="22" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="46">
         <v>2</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="22" t="s">
@@ -4751,46 +4757,46 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7" ht="28.5">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="22" t="s">
         <v>87</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G31" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5">
-      <c r="A32" s="43"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="22" t="s">
         <v>88</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G32" s="22" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="44">
+      <c r="B33" s="46">
         <v>1</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="22" t="s">
@@ -4800,46 +4806,46 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="28.5">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="22" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G34" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.5">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="46">
         <v>0</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
@@ -4849,30 +4855,30 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" ht="28.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G37" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="43"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="22" t="s">
         <v>95</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G38" s="22" t="s">
         <v>132</v>
@@ -4880,6 +4886,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:D38"/>
@@ -4896,38 +4934,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="D27:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4942,7 +4948,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H31"/>
+      <selection activeCell="E13" sqref="E13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4975,21 +4981,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>172</v>
+      <c r="A2" s="45" t="s">
+        <v>170</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -5001,486 +5007,495 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="71.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="42.75">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="G5" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="42.75">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="22" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="42.75">
-      <c r="A5" s="46"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="22" t="s">
+      <c r="G6" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57">
+      <c r="A7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="22" t="s">
+      <c r="G7" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42.75">
-      <c r="A6" s="46"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" ht="14.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="43" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="28.5">
-      <c r="A9" s="46"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5">
+      <c r="A10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5">
+      <c r="A11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.5">
-      <c r="A10" s="46"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="22" t="s">
+      <c r="G11" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5">
+      <c r="A12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.5">
-      <c r="A11" s="46"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="22" t="s">
+      <c r="G12" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5">
+      <c r="A13" s="47"/>
+      <c r="B13" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5">
-      <c r="A12" s="46"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="22" t="s">
+      <c r="C13" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>145</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5">
-      <c r="A13" s="46"/>
-      <c r="B13" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>147</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8" ht="14.25">
-      <c r="A14" s="46"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="22" t="s">
+      <c r="G16" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="22" t="s">
+      <c r="G17" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5">
+      <c r="A18" s="47"/>
+      <c r="B18" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5">
-      <c r="A18" s="46"/>
-      <c r="B18" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="42.75">
-      <c r="A19" s="46"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42.75">
+      <c r="A20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="42.75">
+      <c r="A21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="42.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="22" t="s">
+      <c r="G21" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="42.75">
+      <c r="A22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="22" t="s">
+      <c r="G22" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="42.75">
-      <c r="A22" s="46"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="22" t="s">
+      <c r="G23" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.5">
+      <c r="A24" s="47"/>
+      <c r="B24" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="46"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="22" t="s">
+      <c r="C24" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28.5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>159</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G25" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="22" t="s">
+      <c r="G27" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.5">
+      <c r="A28" s="47"/>
+      <c r="B28" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="G26" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="22" t="s">
+      <c r="C28" s="46">
+        <v>0</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.5">
-      <c r="A28" s="46"/>
-      <c r="B28" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="44">
-        <v>0</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>164</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="14.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.5">
-      <c r="A30" s="46"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="A2:A30"/>
     <mergeCell ref="E3:E7"/>
@@ -5497,15 +5512,6 @@
     <mergeCell ref="E18:E23"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5551,21 +5557,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>280</v>
+      <c r="A2" s="45" t="s">
+        <v>275</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -5577,38 +5583,38 @@
         <v>8</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="44">
+      <c r="A3" s="48"/>
+      <c r="B3" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="46">
         <v>13</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
@@ -5616,51 +5622,51 @@
         <v>7</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="22" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="44">
+      <c r="A6" s="48"/>
+      <c r="B6" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="46">
         <v>12</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
@@ -5668,51 +5674,51 @@
         <v>7</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="44">
+      <c r="A9" s="48"/>
+      <c r="B9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="46">
         <v>11</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
@@ -5720,51 +5726,51 @@
         <v>7</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="44">
+      <c r="A12" s="48"/>
+      <c r="B12" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="46">
         <v>10</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" ht="14.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="22" t="s">
         <v>30</v>
       </c>
@@ -5772,15 +5778,15 @@
         <v>7</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="22" t="s">
         <v>31</v>
       </c>
@@ -5788,35 +5794,35 @@
         <v>11</v>
       </c>
       <c r="H14" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="46">
+        <v>9</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="44">
-        <v>9</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>266</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="22" t="s">
         <v>13</v>
       </c>
@@ -5824,51 +5830,51 @@
         <v>7</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="44">
+      <c r="A18" s="48"/>
+      <c r="B18" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="46">
         <v>8</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
@@ -5876,51 +5882,51 @@
         <v>7</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="44">
-        <v>7</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="43" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="46">
+        <v>7</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="22" t="s">
         <v>30</v>
       </c>
@@ -5928,15 +5934,15 @@
         <v>7</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.5">
-      <c r="A23" s="47"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="22" t="s">
         <v>31</v>
       </c>
@@ -5944,35 +5950,35 @@
         <v>11</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="44">
+      <c r="A24" s="48"/>
+      <c r="B24" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="46">
         <v>6</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="14.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -5980,51 +5986,51 @@
         <v>7</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5">
-      <c r="A26" s="47"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="44">
+      <c r="A27" s="48"/>
+      <c r="B27" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="46">
         <v>5</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="D27" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="22" t="s">
         <v>13</v>
       </c>
@@ -6032,51 +6038,51 @@
         <v>7</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="44">
+      <c r="A30" s="48"/>
+      <c r="B30" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="46">
         <v>4</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="43" t="s">
+      <c r="D30" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="22" t="s">
         <v>13</v>
       </c>
@@ -6084,51 +6090,51 @@
         <v>7</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="44">
+      <c r="A33" s="48"/>
+      <c r="B33" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="46">
         <v>3</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="22" t="s">
         <v>30</v>
       </c>
@@ -6136,15 +6142,15 @@
         <v>7</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="22" t="s">
         <v>31</v>
       </c>
@@ -6152,35 +6158,35 @@
         <v>11</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="44">
+      <c r="A36" s="48"/>
+      <c r="B36" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="46">
         <v>2</v>
       </c>
-      <c r="D36" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
     </row>
     <row r="37" spans="1:8" ht="14.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="22" t="s">
         <v>13</v>
       </c>
@@ -6188,51 +6194,51 @@
         <v>7</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.5">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="44">
+      <c r="A39" s="48"/>
+      <c r="B39" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="46">
         <v>1</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="43" t="s">
+      <c r="D39" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="22" t="s">
         <v>13</v>
       </c>
@@ -6240,51 +6246,51 @@
         <v>7</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.5">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="44">
+      <c r="A42" s="48"/>
+      <c r="B42" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="46">
         <v>0</v>
       </c>
-      <c r="D42" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="22" t="s">
         <v>13</v>
       </c>
@@ -6292,27 +6298,68 @@
         <v>7</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="28.5">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="A2:A44"/>
@@ -6329,47 +6376,6 @@
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6380,7 +6386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H44"/>
     </sheetView>
   </sheetViews>
@@ -6414,22 +6420,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>279</v>
+      <c r="A2" s="45" t="s">
+        <v>274</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -6441,40 +6447,40 @@
         <v>8</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="43">
+      <c r="A3" s="48"/>
+      <c r="B3" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="45">
         <v>13</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
         <v>13</v>
       </c>
@@ -6482,54 +6488,54 @@
         <v>7</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" ht="28.5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="22" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="43">
+      <c r="A6" s="48"/>
+      <c r="B6" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="45">
         <v>12</v>
       </c>
-      <c r="D6" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="14.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
@@ -6537,54 +6543,54 @@
         <v>7</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="28.5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" s="43">
+      <c r="A9" s="48"/>
+      <c r="B9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="45">
         <v>11</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="D9" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="14.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
@@ -6592,54 +6598,54 @@
         <v>7</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="28.5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="43">
+      <c r="A12" s="48"/>
+      <c r="B12" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="45">
         <v>10</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="43" t="s">
+      <c r="D12" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
@@ -6647,54 +6653,54 @@
         <v>7</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="28.5">
-      <c r="A14" s="47"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="43">
+      <c r="A15" s="48"/>
+      <c r="B15" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="45">
         <v>9</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="43" t="s">
+      <c r="D15" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
       <c r="F16" s="22" t="s">
         <v>13</v>
       </c>
@@ -6702,54 +6708,54 @@
         <v>7</v>
       </c>
       <c r="H16" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="28.5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="14.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="43">
+      <c r="A18" s="48"/>
+      <c r="B18" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="45">
         <v>8</v>
       </c>
-      <c r="D18" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
@@ -6757,54 +6763,54 @@
         <v>7</v>
       </c>
       <c r="H19" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="28.5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="14.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C21" s="43">
-        <v>7</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="43" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="45">
+        <v>7</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="F22" s="22" t="s">
         <v>13</v>
       </c>
@@ -6812,54 +6818,54 @@
         <v>7</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="28.5">
-      <c r="A23" s="47"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="14.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="43">
+      <c r="A24" s="48"/>
+      <c r="B24" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="45">
         <v>6</v>
       </c>
-      <c r="D24" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E24" s="43" t="s">
+      <c r="D24" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30"/>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
       <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
@@ -6867,54 +6873,54 @@
         <v>7</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" ht="28.5">
-      <c r="A26" s="47"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
       <c r="F26" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="14.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="43">
+      <c r="A27" s="48"/>
+      <c r="B27" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="45">
         <v>5</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="D27" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="22" t="s">
         <v>13</v>
       </c>
@@ -6922,54 +6928,54 @@
         <v>7</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" ht="28.5">
-      <c r="A29" s="47"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="14.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="43">
+      <c r="A30" s="48"/>
+      <c r="B30" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="45">
         <v>4</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="43" t="s">
+      <c r="D30" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30"/>
       <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="14.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="22" t="s">
         <v>13</v>
       </c>
@@ -6977,54 +6983,54 @@
         <v>7</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="28.5">
-      <c r="A32" s="47"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="14.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="43">
+      <c r="A33" s="48"/>
+      <c r="B33" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="45">
         <v>3</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="43" t="s">
+      <c r="D33" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="14.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="22" t="s">
         <v>13</v>
       </c>
@@ -7032,54 +7038,54 @@
         <v>7</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="28.5">
-      <c r="A35" s="47"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="C36" s="43">
+      <c r="A36" s="48"/>
+      <c r="B36" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="45">
         <v>2</v>
       </c>
-      <c r="D36" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="43" t="s">
+      <c r="D36" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="30"/>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="14.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="22" t="s">
         <v>13</v>
       </c>
@@ -7087,54 +7093,54 @@
         <v>7</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I37" s="7"/>
     </row>
     <row r="38" spans="1:9" ht="28.5">
-      <c r="A38" s="47"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" ht="14.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="43">
+      <c r="A39" s="48"/>
+      <c r="B39" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="45">
         <v>1</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="43" t="s">
+      <c r="D39" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="22" t="s">
         <v>13</v>
       </c>
@@ -7142,54 +7148,54 @@
         <v>7</v>
       </c>
       <c r="H40" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:9" ht="28.5">
-      <c r="A41" s="47"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
       <c r="F41" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H41" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" ht="14.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="43">
+      <c r="A42" s="48"/>
+      <c r="B42" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="45">
         <v>0</v>
       </c>
-      <c r="D42" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="43" t="s">
+      <c r="D42" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="30"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9" ht="14.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="22" t="s">
         <v>13</v>
       </c>
@@ -7197,41 +7203,56 @@
         <v>7</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="28.5">
-      <c r="A44" s="47"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
       <c r="F44" s="22" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="30" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
     <mergeCell ref="A2:A44"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
@@ -7248,34 +7269,19 @@
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="D39:D41"/>
     <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7286,8 +7292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:G44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7318,10 +7324,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
@@ -7329,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>6</v>
@@ -7341,700 +7347,748 @@
         <v>8</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="43">
+      <c r="A3" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="45">
         <v>13</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="45" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="28.5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="22" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="22" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="43">
+      <c r="A6" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="45">
         <v>12</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="28.5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
-      <c r="A9" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="43">
+      <c r="A9" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="45">
         <v>11</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="28.5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>372</v>
-      </c>
-    </row>
     <row r="12" spans="1:7" ht="14.25">
-      <c r="A12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="A12" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="45">
         <v>10</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="28.5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.5">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25">
-      <c r="A15" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="43">
+      <c r="A15" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="45">
         <v>9</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" ht="28.5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
       <c r="E17" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" s="43">
+      <c r="A18" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="45">
         <v>8</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="28.5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="22" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25">
-      <c r="A21" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="43">
-        <v>7</v>
-      </c>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="45">
+        <v>7</v>
+      </c>
+      <c r="C21" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="28.5">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25">
-      <c r="A24" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="43">
+      <c r="A24" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="45">
         <v>6</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7" ht="28.5">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.5">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25">
-      <c r="A27" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="43">
+      <c r="A27" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="45">
         <v>5</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="28.5">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.5">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25">
-      <c r="A30" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="43">
+      <c r="A30" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="45">
         <v>4</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="43" t="s">
+      <c r="D30" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" ht="28.5">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
       <c r="E31" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.5">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25">
-      <c r="A33" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="43">
+      <c r="A33" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="45">
         <v>3</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="22"/>
     </row>
     <row r="34" spans="1:7" ht="28.5">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.5">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25">
-      <c r="A36" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" s="43">
+      <c r="A36" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="45">
         <v>2</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" ht="28.5">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="B39" s="43">
+      <c r="A39" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="45">
         <v>1</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="22"/>
     </row>
     <row r="40" spans="1:7" ht="28.5">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.5">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25">
-      <c r="A42" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="43">
+      <c r="A42" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" s="45">
         <v>0</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="43" t="s">
+      <c r="D42" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" ht="28.5">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="22" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="28.5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A21:A23"/>
@@ -8043,54 +8097,6 @@
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="C30:C32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8136,24 +8142,24 @@
         <v>4</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A2" s="48" t="s">
-        <v>438</v>
+      <c r="A2" s="49" t="s">
+        <v>433</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>7</v>
@@ -8162,116 +8168,116 @@
         <v>8</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="48">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="49">
         <v>13</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="37"/>
     </row>
     <row r="6" spans="1:8" ht="14.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="49">
         <v>12</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="48" t="s">
+      <c r="D7" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="85.5">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="37" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>7</v>
@@ -8279,13 +8285,13 @@
       <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:8" ht="14.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>11</v>
@@ -8293,796 +8299,768 @@
       <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="14.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="48">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="49">
         <v>11</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" s="48" t="s">
+      <c r="D11" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="85.5">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="37" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="57">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="37" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="185.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="242.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="48">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="49">
         <v>10</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="48" t="s">
+      <c r="D16" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="128.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="37" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H17" s="37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="48">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="49">
         <v>9</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="48" t="s">
+      <c r="D20" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E20" s="49" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G20" s="35"/>
       <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="71.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="37" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G22" s="35"/>
       <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="14.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
       <c r="F23" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="14.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="C24" s="48">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="49">
         <v>8</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="42.75">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="42.75">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H26" s="37" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="48">
-        <v>7</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="48" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="49">
+        <v>7</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="39"/>
     </row>
     <row r="29" spans="1:8" ht="28.5">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
       <c r="F29" s="37" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G29" s="38"/>
       <c r="H29" s="39"/>
     </row>
     <row r="30" spans="1:8" ht="42.75">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H30" s="37" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G31" s="38"/>
       <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="14.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="48">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C32" s="49">
         <v>6</v>
       </c>
-      <c r="D32" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E32" s="48" t="s">
+      <c r="D32" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="28.5">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="37" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="42.75">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42.75">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="48">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" s="49">
         <v>5</v>
       </c>
-      <c r="D36" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="48" t="s">
+      <c r="D36" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="57">
-      <c r="A37" s="48"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
       <c r="F37" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G37" s="38"/>
       <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="85.5">
-      <c r="A38" s="48"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G39" s="38"/>
       <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="14.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="48">
+      <c r="A40" s="49"/>
+      <c r="B40" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="49">
         <v>4</v>
       </c>
-      <c r="D40" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" s="48" t="s">
+      <c r="D40" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8" ht="71.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="42.75">
-      <c r="A42" s="48"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="37" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42.75">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="37" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="48">
+      <c r="A44" s="49"/>
+      <c r="B44" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="49">
         <v>3</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E44" s="48" t="s">
+      <c r="D44" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G44" s="35"/>
       <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8" ht="28.5">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="37" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G45" s="35"/>
       <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8" ht="42.75">
-      <c r="A46" s="48"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="85.5">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
       <c r="F47" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="48">
+      <c r="A48" s="49"/>
+      <c r="B48" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="49">
         <v>2</v>
       </c>
-      <c r="D48" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" s="48" t="s">
+      <c r="D48" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G48" s="35"/>
       <c r="H48" s="37"/>
     </row>
     <row r="49" spans="1:8" ht="57">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:8" ht="14.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
       <c r="F50" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G50" s="35"/>
       <c r="H50" s="37" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="14.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="37" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="71.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="C52" s="48">
+      <c r="A52" s="49"/>
+      <c r="B52" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="49">
         <v>1</v>
       </c>
-      <c r="D52" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="48" t="s">
+      <c r="D52" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H52" s="37"/>
     </row>
     <row r="53" spans="1:8" ht="28.5">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G53" s="35"/>
       <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" ht="14.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
       <c r="F54" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="37" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
       <c r="F55" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G55" s="35"/>
       <c r="H55" s="37" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="14.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" s="48">
+      <c r="A56" s="49"/>
+      <c r="B56" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="49">
         <v>0</v>
       </c>
-      <c r="D56" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="48" t="s">
+      <c r="D56" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="37"/>
     </row>
     <row r="57" spans="1:8" ht="28.5">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
       <c r="F57" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
+      <c r="A58" s="49"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
       <c r="F58" s="37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="37"/>
     </row>
     <row r="59" spans="1:8" ht="14.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
+      <c r="A59" s="49"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
       <c r="F59" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G59" s="35"/>
       <c r="H59" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E15"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A2:A59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="B48:B51"/>
@@ -9098,13 +9076,41 @@
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C36:C39"/>
     <mergeCell ref="C40:C43"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A2:A59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C56:C59"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9116,7 +9122,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9149,21 +9155,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>299</v>
+      <c r="A2" s="45" t="s">
+        <v>294</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -9175,78 +9181,78 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>292</v>
+      <c r="E3" s="45" t="s">
+        <v>287</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="22" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>492</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -9307,11 +9313,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>136</v>
+      <c r="A2" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>104</v>
@@ -9326,24 +9332,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -9353,35 +9359,35 @@
       <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
         <v>101</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="22" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -9417,8 +9423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="B1:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9451,21 +9457,21 @@
         <v>4</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25">
-      <c r="A2" s="43" t="s">
-        <v>436</v>
+      <c r="A2" s="45" t="s">
+        <v>431</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>6</v>
@@ -9477,62 +9483,62 @@
         <v>8</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="49">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="50">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>284</v>
+      <c r="E3" s="45" t="s">
+        <v>279</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="28.5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>284</v>
+        <v>298</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>493</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
